--- a/xlsx/932.xlsx
+++ b/xlsx/932.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="InputZip3">'[1]Intermediate Output'!$D$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
